--- a/Team 6.xlsx
+++ b/Team 6.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="21">
   <si>
     <t>Days</t>
   </si>
@@ -34,9 +34,6 @@
     <t xml:space="preserve">K.Ashritha </t>
   </si>
   <si>
-    <t>M.Sindu</t>
-  </si>
-  <si>
     <t>I.Prakash</t>
   </si>
   <si>
@@ -68,6 +65,18 @@
   </si>
   <si>
     <t xml:space="preserve"> Completed</t>
+  </si>
+  <si>
+    <t>M.Sindhu</t>
+  </si>
+  <si>
+    <t>Simialr products</t>
+  </si>
+  <si>
+    <t>Wish List dummy data</t>
+  </si>
+  <si>
+    <t>Not Completed</t>
   </si>
 </sst>
 </file>
@@ -419,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:K7"/>
+  <dimension ref="C3:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -447,7 +456,7 @@
         <v>3</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="3:11" x14ac:dyDescent="0.25">
@@ -458,25 +467,25 @@
         <v>4</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C5" s="2"/>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="3:11" x14ac:dyDescent="0.25">
@@ -485,25 +494,98 @@
         <v>5</v>
       </c>
       <c r="G6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C7" s="2"/>
       <c r="E7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" t="s">
         <v>7</v>
       </c>
-      <c r="G7" t="s">
-        <v>8</v>
-      </c>
       <c r="I7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K7" t="s">
+    </row>
+    <row r="11" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C11" s="2">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C12" s="2"/>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" t="s">
         <v>12</v>
+      </c>
+      <c r="K12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C13" s="2"/>
+      <c r="E13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C14" s="2"/>
+      <c r="E14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" t="s">
+        <v>9</v>
+      </c>
+      <c r="K14" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
